--- a/doc/fmsynthesis/DX7ModulationIndex.xlsx
+++ b/doc/fmsynthesis/DX7ModulationIndex.xlsx
@@ -8,20 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/fm-synth/doc/fmsynthesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B7C6A-DB3E-824C-B773-52FB368EB181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FDE8A5-4AD1-0E40-80FD-D7F1D8B9834A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{C56856DC-190E-9A40-8C3E-9E8A8810FFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$2:$B$101</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Param</t>
   </si>
@@ -48,47 +42,30 @@
     <t>Index</t>
   </si>
   <si>
-    <t>ab^8</t>
+    <t>TL</t>
   </si>
   <si>
-    <t>ab^9</t>
+    <t>Chowning</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Calculated</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>=A*B^(C*X)-K</t>
-  </si>
-  <si>
-    <t>= asymptoot van Y (dus waar Y hetzelfde blijf)</t>
-  </si>
-  <si>
-    <t>Y = A*B^(C*X)-K bij X =0 =&gt; Y = A-K =&gt; A = Y+K</t>
-  </si>
-  <si>
-    <t>Neem twee X2 en X1, met X2 = 1+X1, B is dan: B = (X2/X1)^(1/C)</t>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,14 +91,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -172,11 +152,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Level</a:t>
+              <a:t>Operator level</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t> to modulation index curve</a:t>
+              <a:t> vs modulation index</a:t>
             </a:r>
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
@@ -221,7 +201,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -553,309 +533,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$101</c:f>
+              <c:f>Blad1!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.1835998589741064E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9999999999999997E-4</c:v>
+                  <c:v>3.3675713408691174E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>4.7624650625160514E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9999999999999999E-4</c:v>
+                  <c:v>6.735142681738237E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>9.5249301250321028E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1999999999999999E-3</c:v>
+                  <c:v>1.2352306141428628E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6000000000000001E-3</c:v>
+                  <c:v>1.6018959195363231E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9E-3</c:v>
+                  <c:v>1.9049860250064225E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3E-3</c:v>
+                  <c:v>2.2654229349183879E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7000000000000001E-3</c:v>
+                  <c:v>2.6940570726952948E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2000000000000002E-3</c:v>
+                  <c:v>3.2037918390726461E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8E-3</c:v>
+                  <c:v>3.809972050012845E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4999999999999997E-3</c:v>
+                  <c:v>4.5308458698367768E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4000000000000003E-3</c:v>
+                  <c:v>5.3881141453905905E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.4000000000000003E-3</c:v>
+                  <c:v>6.4075836781452922E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.6E-3</c:v>
+                  <c:v>7.6199441000256848E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.3000000000000001E-3</c:v>
+                  <c:v>8.3096079635550171E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1000000000000004E-3</c:v>
+                  <c:v>9.0616917396735535E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0800000000000001E-2</c:v>
+                  <c:v>1.0776228290781172E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.18E-2</c:v>
+                  <c:v>1.1751560280062983E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>1.3975039097434276E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.52E-2</c:v>
+                  <c:v>1.5239888200051371E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.66E-2</c:v>
+                  <c:v>1.6619215927110038E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8100000000000002E-2</c:v>
+                  <c:v>1.812338347934711E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9800000000000002E-2</c:v>
+                  <c:v>1.9763689826285812E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1600000000000001E-2</c:v>
+                  <c:v>2.1552456581562345E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.35E-2</c:v>
+                  <c:v>2.3503120560125965E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5600000000000001E-2</c:v>
+                  <c:v>2.5630334712581176E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>2.7950078194868527E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0499999999999999E-2</c:v>
+                  <c:v>3.0479776400102743E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.32E-2</c:v>
+                  <c:v>3.3238431854220075E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6200000000000003E-2</c:v>
+                  <c:v>3.6246766958694221E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.95E-2</c:v>
+                  <c:v>3.9527379652571595E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.3099999999999999E-2</c:v>
+                  <c:v>4.3104913163124696E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>4.7006241120251945E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.1299999999999998E-2</c:v>
+                  <c:v>5.1260669425162358E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.5899999999999998E-2</c:v>
+                  <c:v>5.5900156389737055E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>6.0959552800205485E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.6500000000000004E-2</c:v>
+                  <c:v>6.6476863708440165E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.2499999999999995E-2</c:v>
+                  <c:v>7.2493533917388414E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.9100000000000004E-2</c:v>
+                  <c:v>7.9054759305143232E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.6199999999999999E-2</c:v>
+                  <c:v>8.6209826326249392E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.4E-2</c:v>
+                  <c:v>9.4012482240503889E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.10249999999999999</c:v>
+                  <c:v>0.10252133885032468</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1118</c:v>
+                  <c:v>0.11180031277947414</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.12189999999999999</c:v>
+                  <c:v>0.121919105600411</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>0.13295372741688027</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.14499999999999999</c:v>
+                  <c:v>0.14498706783477686</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.15809999999999999</c:v>
+                  <c:v>0.15810951861028638</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1724</c:v>
+                  <c:v>0.17241965265249881</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.188</c:v>
+                  <c:v>0.18802496448100772</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.20504267770064935</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.22359999999999999</c:v>
+                  <c:v>0.22360062555894827</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.24379999999999999</c:v>
+                  <c:v>0.24383821120082205</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.26590000000000003</c:v>
+                  <c:v>0.26590745483376055</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.28997413566955371</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.31619999999999998</c:v>
+                  <c:v>0.31621903722057276</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.3448</c:v>
+                  <c:v>0.34483930530499762</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.376</c:v>
+                  <c:v>0.37604992896201545</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.41010000000000002</c:v>
+                  <c:v>0.41008535540129865</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.44719999999999999</c:v>
+                  <c:v>0.44720125111789666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.48770000000000002</c:v>
+                  <c:v>0.48767642240164399</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.53180000000000005</c:v>
+                  <c:v>0.53181490966752121</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.57989999999999997</c:v>
+                  <c:v>0.57994827133910731</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.63239999999999996</c:v>
+                  <c:v>0.63243807444114575</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.68969999999999998</c:v>
+                  <c:v>0.68967861060999514</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.75209999999999999</c:v>
+                  <c:v>0.75209985792403089</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.82020000000000004</c:v>
+                  <c:v>0.82017071080259729</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.89439999999999997</c:v>
+                  <c:v>0.8944025022357931</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.97540000000000004</c:v>
+                  <c:v>0.97535284480328777</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0636000000000001</c:v>
+                  <c:v>1.0636298193350422</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1598999999999999</c:v>
+                  <c:v>1.1598965426782146</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2648999999999999</c:v>
+                  <c:v>1.2648761488822911</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3794</c:v>
+                  <c:v>1.3793572212199903</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.5042</c:v>
+                  <c:v>1.5041997158480618</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.6403000000000001</c:v>
+                  <c:v>1.6403414216051948</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.788</c:v>
+                  <c:v>1.7888050044715862</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9507000000000001</c:v>
+                  <c:v>1.9507056896065755</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1273</c:v>
+                  <c:v>2.1272596386700844</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.3197999999999999</c:v>
+                  <c:v>2.3197930853564293</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.5297999999999998</c:v>
+                  <c:v>2.5297522977645821</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.7587000000000002</c:v>
+                  <c:v>2.7587144424399805</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.0084</c:v>
+                  <c:v>3.0083994316961236</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.2806999999999999</c:v>
+                  <c:v>3.2806828432103892</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.5775999999999999</c:v>
+                  <c:v>3.5776100089431724</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.9014000000000002</c:v>
+                  <c:v>3.9014113792131511</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.2545000000000002</c:v>
+                  <c:v>4.2545192773401688</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6395999999999997</c:v>
+                  <c:v>4.6395861707128585</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.0594999999999999</c:v>
+                  <c:v>5.0595045955291642</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.5174000000000003</c:v>
+                  <c:v>5.5174288848799611</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.0167999999999999</c:v>
+                  <c:v>6.0167988633922462</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.5613999999999999</c:v>
+                  <c:v>6.5613656864207783</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.1551999999999998</c:v>
+                  <c:v>7.1552200178863448</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.8028000000000004</c:v>
+                  <c:v>7.8028227584263021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.5090000000000003</c:v>
+                  <c:v>8.5090385546803375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.2791999999999994</c:v>
+                  <c:v>9.279172341425717</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.119</c:v>
+                  <c:v>10.119009191058328</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11.035</c:v>
+                  <c:v>11.034857769759922</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>12.034000000000001</c:v>
+                  <c:v>12.033597726784494</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>13.122999999999999</c:v>
+                  <c:v>13.122731372841557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1027,588 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Chowning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> vs calculated</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chowning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$2:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-890F-9F42-B46B-392CE88C36EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$O$2:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.2037918390726461E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3975039097434276E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3238431854220075E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9054759305143232E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18802496448100772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44720125111789666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68967861060999514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0636298193350422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6403414216051948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5297522977645821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9014113792131511</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0167988633922462</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.279172341425717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.122731372841557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-890F-9F42-B46B-392CE88C36EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1034417839"/>
+        <c:axId val="980978895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1034417839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="980978895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="980978895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034417839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1603,20 +2164,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:colOff>641350</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1636,6 +2700,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64D521C-74C9-A64A-BF99-B3A8AA897AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1941,33 +3041,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52CF159-8657-9646-A131-29250075AD56}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <f>1/440</f>
-        <v>2.2727272727272726E-3</v>
-      </c>
-      <c r="D1">
-        <v>2.4</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1975,11 +3080,28 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C2">
-        <f>$C$1*POWER($D$1,$E$1*A2/10)</f>
-        <v>2.2727272727272726E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <f>PI()*POWER(2,(33/16)-(E2)/8)</f>
+        <v>2.1835998589741064E-4</v>
+      </c>
+      <c r="E2">
+        <v>127</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O2">
+        <f>VLOOKUP(M2,A:C,3,FALSE)</f>
+        <v>3.2037918390726461E-3</v>
+      </c>
+      <c r="P2" s="2">
+        <f>ABS(1-O2/N2)</f>
+        <v>6.7930613024215436E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -1988,17 +3110,30 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">$C$1*POWER($D$1,$E$1*A3/10)</f>
-        <v>2.4806668764043114E-3</v>
-      </c>
-      <c r="D3">
-        <f>B3-B2</f>
-        <v>9.9999999999999964E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C3:C66" si="0">PI()*POWER(2,(33/16)-(E3)/8)</f>
+        <v>3.3675713408691174E-4</v>
+      </c>
+      <c r="E3">
+        <v>122</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O15" si="1">VLOOKUP(M3,A:C,3,FALSE)</f>
+        <v>1.3975039097434276E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P15" si="2">ABS(1-O3/N3)</f>
+        <v>7.5003007494944374E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="1">A3+1</f>
+        <f t="shared" ref="A4:A67" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -2006,20 +3141,29 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2.7076315867433898E-3</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D67" si="2">B4-B3</f>
-        <v>2.0000000000000004E-4</v>
+        <v>4.7624650625160514E-4</v>
       </c>
       <c r="E4">
-        <f>D4-D3</f>
-        <v>1.0000000000000007E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>3.3238431854220075E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2207479168389543E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -2027,20 +3171,29 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.9553620759257644E-3</v>
-      </c>
-      <c r="D5">
+        <v>6.735142681738237E-4</v>
+      </c>
+      <c r="E5">
+        <v>114</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>7.9054759305143232E-2</v>
+      </c>
+      <c r="P5" s="2">
         <f t="shared" si="2"/>
-        <v>1.9999999999999998E-4</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E68" si="3">D5-D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6.9315576130679624E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -2048,20 +3201,29 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>3.2257582761934323E-3</v>
-      </c>
-      <c r="D6">
+        <v>9.5249301250321028E-4</v>
+      </c>
+      <c r="E6">
+        <v>110</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>0.188</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.18802496448100772</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" si="2"/>
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000005E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.3278979259423451E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -2069,20 +3231,29 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>3.5208939510976518E-3</v>
-      </c>
-      <c r="D7">
+        <v>1.2352306141428628E-3</v>
+      </c>
+      <c r="E7">
+        <v>107</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.44720125111789666</v>
+      </c>
+      <c r="P7" s="2">
         <f t="shared" si="2"/>
-        <v>1.9999999999999987E-4</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>-1.0000000000000015E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.6933881567190454E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -2090,20 +3261,29 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.8430325999209074E-3</v>
-      </c>
-      <c r="D8">
+        <v>1.6018959195363231E-3</v>
+      </c>
+      <c r="E8">
+        <v>104</v>
+      </c>
+      <c r="M8">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>0.69</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.68967861060999514</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>4.0000000000000018E-4</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000031E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.6578172464462053E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -2111,20 +3291,29 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>4.1946448172489239E-3</v>
-      </c>
-      <c r="D9">
+        <v>1.9049860250064225E-3</v>
+      </c>
+      <c r="E9">
+        <v>102</v>
+      </c>
+      <c r="M9">
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>1.0636298193350422</v>
+      </c>
+      <c r="P9" s="2">
         <f t="shared" si="2"/>
-        <v>2.9999999999999992E-4</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>-1.0000000000000026E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.0919294615709978E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -2132,20 +3321,29 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>4.5784272408293863E-3</v>
-      </c>
-      <c r="D10">
+        <v>2.2654229349183879E-3</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <v>1.639</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1.6403414216051948</v>
+      </c>
+      <c r="P10" s="2">
         <f t="shared" si="2"/>
-        <v>3.9999999999999996E-4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000005E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8.1843905136969042E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -2153,20 +3351,29 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>4.9973232330351629E-3</v>
-      </c>
-      <c r="D11">
+        <v>2.6940570726952948E-3</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="M11">
+        <v>80</v>
+      </c>
+      <c r="N11">
+        <v>2.512</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>2.5297522977645821</v>
+      </c>
+      <c r="P11" s="2">
         <f t="shared" si="2"/>
-        <v>4.0000000000000018E-4</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7.0669975177477529E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -2174,20 +3381,29 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>5.4545454545454541E-3</v>
-      </c>
-      <c r="D12">
+        <v>3.2037918390726461E-3</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
+      </c>
+      <c r="M12">
+        <v>85</v>
+      </c>
+      <c r="N12">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>3.9014113792131511</v>
+      </c>
+      <c r="P12" s="2">
         <f t="shared" si="2"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999829E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.9032817701980509E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -2195,24 +3411,29 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>5.9536005033703461E-3</v>
-      </c>
-      <c r="D13">
+        <v>3.809972050012845E-3</v>
+      </c>
+      <c r="E13">
+        <v>94</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>6.0167988633922462</v>
+      </c>
+      <c r="P13" s="2">
         <f t="shared" si="2"/>
-        <v>5.9999999999999984E-4</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999829E-5</v>
-      </c>
-      <c r="N13">
-        <f>1/440</f>
-        <v>2.2727272727272726E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.0237413514270219E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -2220,20 +3441,29 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>6.4983158081841344E-3</v>
-      </c>
-      <c r="D14">
+        <v>4.5308458698367768E-3</v>
+      </c>
+      <c r="E14">
+        <v>92</v>
+      </c>
+      <c r="M14">
+        <v>95</v>
+      </c>
+      <c r="N14">
+        <v>9.2629999999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>9.279172341425717</v>
+      </c>
+      <c r="P14" s="2">
         <f t="shared" si="2"/>
-        <v>6.9999999999999967E-4</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999829E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.7459075273364988E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -2241,20 +3471,29 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>7.0928689822218347E-3</v>
-      </c>
-      <c r="D15">
+        <v>5.3881141453905905E-3</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="M15">
+        <v>99</v>
+      </c>
+      <c r="N15">
+        <v>13.119</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>13.122731372841557</v>
+      </c>
+      <c r="P15" s="2">
         <f t="shared" si="2"/>
-        <v>9.0000000000000063E-4</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000096E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.8442509654369452E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -2262,20 +3501,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>7.7418198628642345E-3</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>6.4075836781452922E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999395E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -2283,20 +3517,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>8.4501454826343622E-3</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>1.1999999999999997E-3</v>
+        <v>7.6199441000256848E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>1.9999999999999966E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -2304,20 +3533,15 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>9.2232782398101783E-3</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>7.000000000000001E-4</v>
+        <v>8.3096079635550171E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>-4.9999999999999958E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -2325,20 +3549,15 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1.0067147561397417E-2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000036E-4</v>
+        <v>9.0616917396735535E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000026E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -2346,20 +3565,15 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>1.0988225377990527E-2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>1.7000000000000001E-3</v>
+        <v>1.0776228290781172E-2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>8.9999999999999976E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -2367,29 +3581,16 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>1.1993575759284386E-2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999915E-4</v>
+        <v>1.1751560280062983E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>-7.0000000000000097E-4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -2397,29 +3598,17 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>1.3090909090909091E-2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>2.2000000000000006E-3</v>
+        <v>1.3975039097434276E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
-        <v>1.2000000000000014E-3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <f>99-A22</f>
+        <v>79</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -2427,29 +3616,16 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1.4288641208088832E-2</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>1.1999999999999997E-3</v>
+        <v>1.5239888200051371E-2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <v>2.5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E23:E86" si="4">99-A23</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24">
@@ -2457,26 +3633,16 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>1.5595957939641926E-2</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000002E-3</v>
+        <v>1.6619215927110038E-2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000052E-4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25">
@@ -2484,29 +3650,17 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.7022885557332397E-2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>1.5000000000000013E-3</v>
+        <v>1.812338347934711E-2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000113E-4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -2514,27 +3668,16 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1.8580367670874162E-2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>1.7000000000000001E-3</v>
+        <v>1.9763689826285812E-2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
-        <v>1.9999999999999879E-4</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f>$I$22*POWER($I$23,G26*$I$24)-$I$21</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -2542,31 +3685,16 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>2.0280349158322476E-2</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999995E-3</v>
+        <v>2.1552456581562345E-2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999395E-5</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f>$I$22*POWER($I$23,G27*$I$24)-$I$21</f>
-        <v>1.0284235971361229E-2</v>
-      </c>
-      <c r="K27">
-        <f>H28/H27</f>
-        <v>51.421179856806141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -2574,31 +3702,16 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>2.2135867775544431E-2</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>1.8999999999999989E-3</v>
+        <v>2.3503120560125965E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999395E-5</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <f>$I$22*POWER($I$23,G28*$I$24)-$I$21</f>
-        <v>0.52882754757320116</v>
-      </c>
-      <c r="K28">
-        <f>POWER(K27,1/I24)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -2606,20 +3719,16 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>2.4161154147353803E-2</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000012E-3</v>
+        <v>2.5630334712581176E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000226E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -2627,20 +3736,16 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>2.6371740907177248E-2</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>2.3999999999999994E-3</v>
+        <v>2.7950078194868527E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>2.9999999999999818E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -2648,20 +3753,16 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>2.8784581822282534E-2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>2.4999999999999988E-3</v>
+        <v>3.0479776400102743E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999395E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -2669,20 +3770,16 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>3.1418181818181817E-2</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>2.700000000000001E-3</v>
+        <v>3.3238431854220075E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000226E-4</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -2690,20 +3787,16 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>3.4292738899413186E-2</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000027E-3</v>
+        <v>3.6246766958694221E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>3.0000000000000165E-4</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34">
@@ -2711,20 +3804,16 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>3.7430299055140628E-2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>3.2999999999999974E-3</v>
+        <v>3.9527379652571595E-2</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>2.9999999999999472E-4</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35">
@@ -2732,20 +3821,16 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>4.0854925337597756E-2</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>3.599999999999999E-3</v>
+        <v>4.3104913163124696E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>3.0000000000000165E-4</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36">
@@ -2753,20 +3838,16 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>4.4592882410097984E-2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>3.9000000000000007E-3</v>
+        <v>4.7006241120251945E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>3.0000000000000165E-4</v>
+        <f t="shared" si="4"/>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37">
@@ -2774,20 +3855,16 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>4.8672837979973904E-2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>4.2999999999999983E-3</v>
+        <v>5.1260669425162358E-2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
-        <v>3.9999999999999758E-4</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38">
@@ -2795,20 +3872,16 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>5.3126082661306626E-2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999999E-3</v>
+        <v>5.5900156389737055E-2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
-        <v>3.0000000000000165E-4</v>
+        <f t="shared" si="4"/>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B39">
@@ -2816,20 +3889,16 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>5.7986769953649125E-2</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>5.1000000000000004E-3</v>
+        <v>6.0959552800205485E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000044E-4</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B40">
@@ -2837,20 +3906,16 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>6.3292178177225392E-2</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>5.5000000000000049E-3</v>
+        <v>6.6476863708440165E-2</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000452E-4</v>
+        <f t="shared" si="4"/>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B41">
@@ -2858,20 +3923,16 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>6.9082996373478076E-2</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>5.9999999999999915E-3</v>
+        <v>7.2493533917388414E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
-        <v>4.9999999999998657E-4</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B42">
@@ -2879,20 +3940,16 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>7.5403636363636353E-2</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>6.6000000000000086E-3</v>
+        <v>7.9054759305143232E-2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
-        <v>6.0000000000001719E-4</v>
+        <f t="shared" si="4"/>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B43">
@@ -2900,20 +3957,16 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>8.2302573358591605E-2</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>7.0999999999999952E-3</v>
+        <v>8.6209826326249392E-2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
-        <v>4.9999999999998657E-4</v>
+        <f t="shared" si="4"/>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B44">
@@ -2921,20 +3974,16 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>8.9832717732337489E-2</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>7.8000000000000014E-3</v>
+        <v>9.4012482240503889E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
-        <v>7.0000000000000617E-4</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B45">
@@ -2942,20 +3991,16 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>9.80518208102346E-2</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>8.4999999999999937E-3</v>
+        <v>0.10252133885032468</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
-        <v>6.999999999999923E-4</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B46">
@@ -2963,20 +4008,16 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.10702291778423521</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>9.3000000000000027E-3</v>
+        <v>0.11180031277947414</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
-        <v>8.0000000000000904E-4</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B47">
@@ -2984,20 +4025,16 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.11681481115193743</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>1.0099999999999998E-2</v>
+        <v>0.121919105600411</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
-        <v>7.9999999999999516E-4</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B48">
@@ -3005,20 +4042,16 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.12750259838713585</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>1.1100000000000013E-2</v>
+        <v>0.13295372741688027</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000148E-3</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B49">
@@ -3026,20 +4059,16 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.1391682478887579</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>1.1999999999999983E-2</v>
+        <v>0.14498706783477686</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
-        <v>8.9999999999997027E-4</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B50">
@@ -3047,20 +4076,16 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.15190122762534095</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>1.3100000000000001E-2</v>
+        <v>0.15810951861028638</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
-        <v>1.1000000000000176E-3</v>
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B51">
@@ -3068,20 +4093,16 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.16579919129634735</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="2"/>
-        <v>1.4300000000000007E-2</v>
+        <v>0.17241965265249881</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
-        <v>1.2000000000000066E-3</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B52">
@@ -3089,20 +4110,16 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.18096872727272725</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="2"/>
-        <v>1.5600000000000003E-2</v>
+        <v>0.18802496448100772</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
-        <v>1.2999999999999956E-3</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B53">
@@ -3110,20 +4127,16 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.19752617606061995</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="2"/>
-        <v>1.6999999999999987E-2</v>
+        <v>0.20504267770064935</v>
       </c>
       <c r="E53">
-        <f t="shared" si="3"/>
-        <v>1.3999999999999846E-3</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B54">
@@ -3131,20 +4144,16 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.21559852255760997</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="2"/>
-        <v>1.8600000000000005E-2</v>
+        <v>0.22360062555894827</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
-        <v>1.6000000000000181E-3</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B55">
@@ -3152,20 +4161,16 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.23532436994456302</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="2"/>
-        <v>2.0199999999999996E-2</v>
+        <v>0.24383821120082205</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
-        <v>1.5999999999999903E-3</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B56">
@@ -3173,20 +4178,16 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.25685500268216443</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="2"/>
-        <v>2.2100000000000036E-2</v>
+        <v>0.26590745483376055</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
-        <v>1.9000000000000405E-3</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B57">
@@ -3194,20 +4195,16 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.28035554676464969</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="2"/>
-        <v>2.4099999999999955E-2</v>
+        <v>0.28997413566955371</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
-        <v>1.9999999999999185E-3</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B58">
@@ -3215,20 +4212,16 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.30600623612912586</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="2"/>
-        <v>2.6200000000000001E-2</v>
+        <v>0.31621903722057276</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
-        <v>2.1000000000000463E-3</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B59">
@@ -3236,20 +4229,16 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.33400379493301907</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="2"/>
-        <v>2.8600000000000014E-2</v>
+        <v>0.34483930530499762</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
-        <v>2.4000000000000132E-3</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B60">
@@ -3257,20 +4246,16 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.36456294630081837</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="2"/>
-        <v>3.1200000000000006E-2</v>
+        <v>0.37604992896201545</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
-        <v>2.5999999999999912E-3</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B61">
@@ -3278,20 +4263,16 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.39791805911123379</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="2"/>
-        <v>3.4100000000000019E-2</v>
+        <v>0.41008535540129865</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
-        <v>2.9000000000000137E-3</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B62">
@@ -3299,20 +4280,16 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.43432494545454542</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="2"/>
-        <v>3.7099999999999966E-2</v>
+        <v>0.44720125111789666</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
-        <v>2.9999999999999472E-3</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B63">
@@ -3320,20 +4297,16 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.47406282254548754</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="2"/>
-        <v>4.0500000000000036E-2</v>
+        <v>0.48767642240164399</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
-        <v>3.4000000000000696E-3</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B64">
@@ -3341,20 +4314,16 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.51743645413826367</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="2"/>
-        <v>4.4100000000000028E-2</v>
+        <v>0.53181490966752121</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
-        <v>3.5999999999999921E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B65">
@@ -3362,20 +4331,16 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.56477848786695095</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="2"/>
-        <v>4.8099999999999921E-2</v>
+        <v>0.57994827133910731</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
-        <v>3.9999999999998925E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B66">
@@ -3383,795 +4348,606 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>0.616452006437195</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="2"/>
-        <v>5.2499999999999991E-2</v>
+        <v>0.63243807444114575</v>
       </c>
       <c r="E66">
-        <f t="shared" si="3"/>
-        <v>4.4000000000000705E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B67">
         <v>0.68969999999999998</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="4">$C$1*POWER($D$1,$E$1*A67/10)</f>
-        <v>0.67285331223515943</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="2"/>
-        <v>5.7300000000000018E-2</v>
+        <f t="shared" ref="C67:C101" si="5">PI()*POWER(2,(33/16)-(E67)/8)</f>
+        <v>0.68967861060999514</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
-        <v>4.8000000000000265E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ref="A68:A101" si="5">A67+1</f>
+        <f t="shared" ref="A68:A101" si="6">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68">
         <v>0.75209999999999999</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
-        <v>0.73441496670990225</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ref="D68:D101" si="6">B68-B67</f>
-        <v>6.2400000000000011E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.75209985792403089</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
-        <v>5.0999999999999934E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="B69">
         <v>0.82020000000000004</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
-        <v>0.80160910783924533</v>
-      </c>
-      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>0.82017071080259729</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
         <f t="shared" si="6"/>
-        <v>6.8100000000000049E-2</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ref="E69:E101" si="7">D69-D68</f>
-        <v>5.7000000000000384E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B70">
         <v>0.89439999999999997</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
-        <v>0.87495107112196369</v>
-      </c>
-      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>0.8944025022357931</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
         <f t="shared" si="6"/>
-        <v>7.4199999999999933E-2</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="7"/>
-        <v>6.0999999999998833E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B71">
         <v>0.97540000000000004</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
-        <v>0.95500334186696068</v>
-      </c>
-      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>0.97535284480328777</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
         <f t="shared" si="6"/>
-        <v>8.1000000000000072E-2</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="7"/>
-        <v>6.8000000000001393E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B72">
         <v>1.0636000000000001</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
-        <v>1.042379869090909</v>
-      </c>
-      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>1.0636298193350422</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
         <f t="shared" si="6"/>
-        <v>8.8200000000000056E-2</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="7"/>
-        <v>7.1999999999999842E-3</v>
-      </c>
-      <c r="G72">
-        <v>80</v>
-      </c>
-      <c r="H72">
-        <v>8</v>
-      </c>
-      <c r="I72">
-        <v>2.5297999999999998</v>
-      </c>
-      <c r="J72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B73">
         <v>1.1598999999999999</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
-        <v>1.1377507741091706</v>
-      </c>
-      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>1.1598965426782146</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
         <f t="shared" si="6"/>
-        <v>9.629999999999983E-2</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="7"/>
-        <v>8.099999999999774E-3</v>
-      </c>
-      <c r="G73">
-        <v>90</v>
-      </c>
-      <c r="H73">
-        <v>9</v>
-      </c>
-      <c r="I73">
-        <v>6.0167999999999999</v>
-      </c>
-      <c r="J73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B74">
         <v>1.2648999999999999</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
-        <v>1.2418474899318332</v>
-      </c>
-      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>1.2648761488822911</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
         <f t="shared" si="6"/>
-        <v>0.10499999999999998</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="7"/>
-        <v>8.7000000000001521E-3</v>
-      </c>
-      <c r="H74" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74">
-        <f>I73/I72</f>
-        <v>2.3783698316072419</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B75">
         <v>1.3794</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
-        <v>1.3554683708806829</v>
-      </c>
-      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>1.3793572212199903</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
         <f t="shared" si="6"/>
-        <v>0.11450000000000005</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="7"/>
-        <v>9.5000000000000639E-3</v>
-      </c>
-      <c r="H75" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75">
-        <f>I72/POWER(I74,8)</f>
-        <v>2.4708767837338776E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B76">
         <v>1.5042</v>
       </c>
       <c r="C76">
-        <f t="shared" si="4"/>
-        <v>1.479484815449267</v>
-      </c>
-      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>1.5041997158480618</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
         <f t="shared" si="6"/>
-        <v>0.12480000000000002</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="7"/>
-        <v>1.0299999999999976E-2</v>
-      </c>
-      <c r="H76" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76">
-        <f>I73/POWER(I74,9)</f>
-        <v>2.4708767837338772E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B77">
         <v>1.6403000000000001</v>
       </c>
       <c r="C77">
-        <f t="shared" si="4"/>
-        <v>1.6148479493643817</v>
-      </c>
-      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>1.6403414216051948</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
         <f t="shared" si="6"/>
-        <v>0.13610000000000011</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="7"/>
-        <v>1.1300000000000088E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B78">
         <v>1.788</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
-        <v>1.7625959201037646</v>
-      </c>
-      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>1.7888050044715862</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
         <f t="shared" si="6"/>
-        <v>0.14769999999999994</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="7"/>
-        <v>1.1599999999999833E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B79">
         <v>1.9507000000000001</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
-        <v>1.9238618588141894</v>
-      </c>
-      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>1.9507056896065755</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
         <f t="shared" si="6"/>
-        <v>0.16270000000000007</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="7"/>
-        <v>1.5000000000000124E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="B80">
         <v>2.1273</v>
       </c>
       <c r="C80">
-        <f t="shared" si="4"/>
-        <v>2.0998825706927136</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="6"/>
-        <v>0.17659999999999987</v>
+        <f t="shared" si="5"/>
+        <v>2.1272596386700844</v>
       </c>
       <c r="E80">
-        <f t="shared" si="7"/>
-        <v>1.3899999999999801E-2</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="B81">
         <v>2.3197999999999999</v>
       </c>
       <c r="C81">
-        <f t="shared" si="4"/>
-        <v>2.2920080204807065</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="6"/>
-        <v>0.19249999999999989</v>
+        <f t="shared" si="5"/>
+        <v>2.3197930853564293</v>
       </c>
       <c r="E81">
-        <f t="shared" si="7"/>
-        <v>1.5900000000000025E-2</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="B82">
         <v>2.5297999999999998</v>
       </c>
       <c r="C82">
-        <f t="shared" si="4"/>
-        <v>2.5017116858181812</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="6"/>
-        <v>0.20999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>2.5297522977645821</v>
       </c>
       <c r="E82">
-        <f t="shared" si="7"/>
-        <v>1.7500000000000071E-2</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="B83">
         <v>2.7587000000000002</v>
       </c>
       <c r="C83">
-        <f t="shared" si="4"/>
-        <v>2.7306018578620077</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="6"/>
-        <v>0.22890000000000033</v>
+        <f t="shared" si="5"/>
+        <v>2.7587144424399805</v>
       </c>
       <c r="E83">
-        <f t="shared" si="7"/>
-        <v>1.8900000000000361E-2</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="B84">
         <v>3.0084</v>
       </c>
       <c r="C84">
-        <f t="shared" si="4"/>
-        <v>2.9804339758363954</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="6"/>
-        <v>0.24969999999999981</v>
+        <f t="shared" si="5"/>
+        <v>3.0083994316961236</v>
       </c>
       <c r="E84">
-        <f t="shared" si="7"/>
-        <v>2.0799999999999486E-2</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B85">
         <v>3.2806999999999999</v>
       </c>
       <c r="C85">
-        <f t="shared" si="4"/>
-        <v>3.2531240901136398</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="6"/>
-        <v>0.27229999999999999</v>
+        <f t="shared" si="5"/>
+        <v>3.2806828432103892</v>
       </c>
       <c r="E85">
-        <f t="shared" si="7"/>
-        <v>2.2600000000000176E-2</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="B86">
         <v>3.5775999999999999</v>
       </c>
       <c r="C86">
-        <f t="shared" si="4"/>
-        <v>3.5507635570782425</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="6"/>
-        <v>0.29689999999999994</v>
+        <f t="shared" si="5"/>
+        <v>3.5776100089431724</v>
       </c>
       <c r="E86">
-        <f t="shared" si="7"/>
-        <v>2.4599999999999955E-2</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="B87">
         <v>3.9014000000000002</v>
       </c>
       <c r="C87">
-        <f t="shared" si="4"/>
-        <v>3.8756350784745179</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="6"/>
-        <v>0.32380000000000031</v>
+        <f t="shared" si="5"/>
+        <v>3.9014113792131511</v>
       </c>
       <c r="E87">
-        <f t="shared" si="7"/>
-        <v>2.6900000000000368E-2</v>
+        <f t="shared" ref="E87:E101" si="7">99-A87</f>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="B88">
         <v>4.2545000000000002</v>
       </c>
       <c r="C88">
-        <f t="shared" si="4"/>
-        <v>4.2302302082490364</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="6"/>
-        <v>0.35309999999999997</v>
+        <f t="shared" si="5"/>
+        <v>4.2545192773401688</v>
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>2.929999999999966E-2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="B89">
         <v>4.6395999999999997</v>
       </c>
       <c r="C89">
-        <f t="shared" si="4"/>
-        <v>4.6172684611540484</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="6"/>
-        <v>0.38509999999999955</v>
+        <f t="shared" si="5"/>
+        <v>4.6395861707128585</v>
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>3.1999999999999584E-2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B90">
         <v>5.0594999999999999</v>
       </c>
       <c r="C90">
-        <f t="shared" si="4"/>
-        <v>5.039718169662514</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="6"/>
-        <v>0.41990000000000016</v>
+        <f t="shared" si="5"/>
+        <v>5.0595045955291642</v>
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>3.4800000000000608E-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="B91">
         <v>5.5174000000000003</v>
       </c>
       <c r="C91">
-        <f t="shared" si="4"/>
-        <v>5.5008192491536922</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="6"/>
-        <v>0.45790000000000042</v>
+        <f t="shared" si="5"/>
+        <v>5.5174288848799611</v>
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>3.8000000000000256E-2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="B92">
         <v>6.0167999999999999</v>
       </c>
       <c r="C92">
-        <f t="shared" si="4"/>
-        <v>6.0041080459636351</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="6"/>
-        <v>0.49939999999999962</v>
+        <f t="shared" si="5"/>
+        <v>6.0167988633922462</v>
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>4.1499999999999204E-2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="B93">
         <v>6.5613999999999999</v>
       </c>
       <c r="C93">
-        <f t="shared" si="4"/>
-        <v>6.5534444588688219</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="6"/>
-        <v>0.54459999999999997</v>
+        <f t="shared" si="5"/>
+        <v>6.5613656864207783</v>
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>4.5200000000000351E-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="B94">
         <v>7.1551999999999998</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
-        <v>7.153041542007351</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="6"/>
-        <v>0.59379999999999988</v>
+        <f t="shared" si="5"/>
+        <v>7.1552200178863448</v>
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>4.919999999999991E-2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="B95">
         <v>7.8028000000000004</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
-        <v>7.8074978162727389</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="6"/>
-        <v>0.64760000000000062</v>
+        <f t="shared" si="5"/>
+        <v>7.8028227584263021</v>
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>5.3800000000000736E-2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="B96">
         <v>8.5090000000000003</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
-        <v>8.5218325369877768</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="6"/>
-        <v>0.70619999999999994</v>
+        <f t="shared" si="5"/>
+        <v>8.5090385546803375</v>
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>5.8599999999999319E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="B97">
         <v>9.2791999999999994</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
-        <v>9.3015241883388367</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="6"/>
-        <v>0.77019999999999911</v>
+        <f t="shared" si="5"/>
+        <v>9.279172341425717</v>
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>6.3999999999999169E-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="B98">
         <v>10.119</v>
       </c>
       <c r="C98">
-        <f t="shared" si="4"/>
-        <v>10.152552499797682</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="6"/>
-        <v>0.83980000000000032</v>
+        <f t="shared" si="5"/>
+        <v>10.119009191058328</v>
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>6.9600000000001216E-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="B99">
         <v>11.035</v>
       </c>
       <c r="C99">
-        <f t="shared" si="4"/>
-        <v>11.081444306769709</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="6"/>
-        <v>0.91600000000000037</v>
+        <f t="shared" si="5"/>
+        <v>11.034857769759922</v>
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>7.6200000000000045E-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="B100">
         <v>12.034000000000001</v>
       </c>
       <c r="C100">
-        <f t="shared" si="4"/>
-        <v>12.095323607190029</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="6"/>
-        <v>0.99900000000000055</v>
+        <f t="shared" si="5"/>
+        <v>12.033597726784494</v>
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>8.3000000000000185E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="B101">
         <v>13.122999999999999</v>
       </c>
       <c r="C101">
-        <f t="shared" si="4"/>
-        <v>13.201966197968854</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="6"/>
-        <v>1.0889999999999986</v>
+        <f t="shared" si="5"/>
+        <v>13.122731372841557</v>
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>8.9999999999998082E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
